--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2160918899262387</v>
+        <v>-0.2744923139017411</v>
       </c>
       <c r="D2">
-        <v>0.8289423704121954</v>
+        <v>0.7862673926495143</v>
       </c>
       <c r="E2">
         <v>1.081741902542865</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6454372997959124</v>
+        <v>0.7559947161944034</v>
       </c>
       <c r="D3">
-        <v>0.5187320283148105</v>
+        <v>0.4576714854965753</v>
       </c>
       <c r="E3">
         <v>1.081741902542865</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.5604796948071941</v>
+        <v>-0.4617498214073096</v>
       </c>
       <c r="D4">
-        <v>0.5752270638178567</v>
+        <v>0.6487941316509032</v>
       </c>
       <c r="E4">
         <v>1.081741902542865</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.495259779515328</v>
+        <v>-1.148978328098309</v>
       </c>
       <c r="D5">
-        <v>0.1350345795261512</v>
+        <v>0.2629039614962512</v>
       </c>
       <c r="E5">
         <v>1.081741902542865</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7813302657502149</v>
+        <v>0.9244875089613477</v>
       </c>
       <c r="D6">
-        <v>0.4347184280590808</v>
+        <v>0.3652625026690521</v>
       </c>
       <c r="E6">
         <v>1.091908800301725</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.3181752811572764</v>
+        <v>-0.2951176965389922</v>
       </c>
       <c r="D7">
-        <v>0.7503915512625547</v>
+        <v>0.7706711167417077</v>
       </c>
       <c r="E7">
         <v>1.091908800301725</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.9394254756175697</v>
+        <v>-0.7860165257361048</v>
       </c>
       <c r="D8">
-        <v>0.3476474623303445</v>
+        <v>0.4402422524858056</v>
       </c>
       <c r="E8">
         <v>1.091908800301725</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.06874041563384</v>
+        <v>-0.9638842842096439</v>
       </c>
       <c r="D9">
-        <v>0.2853402821442552</v>
+        <v>0.3455801824238933</v>
       </c>
       <c r="E9">
         <v>1.052996911003312</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.92533437405779</v>
+        <v>-1.649919001666828</v>
       </c>
       <c r="D10">
-        <v>0.05435627523155029</v>
+        <v>0.1131658247870049</v>
       </c>
       <c r="E10">
         <v>1.052996911003312</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5830753757661861</v>
+        <v>-0.4906242199881632</v>
       </c>
       <c r="D11">
-        <v>0.5599208633634838</v>
+        <v>0.6285502295590888</v>
       </c>
       <c r="E11">
         <v>1.110709401161094</v>
